--- a/GCCWELFARE DATABASE.xlsx
+++ b/GCCWELFARE DATABASE.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="994">
   <si>
     <t xml:space="preserve">Salutation</t>
   </si>
@@ -1116,6 +1116,39 @@
     <t xml:space="preserve">STEPHEN </t>
   </si>
   <si>
+    <t xml:space="preserve">RUTH WAMBUI MUTIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">948-00518-NAIROBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0724234939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mutiaruth@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMMY MUTIA MWANZIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0722841148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSEPH MUTUA MUTIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIJAH MWANZIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTHUR PATRICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOHN MURIUKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATE-REBECCA WAMUYU</t>
+  </si>
+  <si>
     <t xml:space="preserve">JULIAS OWINO</t>
   </si>
   <si>
@@ -2175,25 +2208,10 @@
     <t xml:space="preserve">ELIJAH KARABA</t>
   </si>
   <si>
-    <t xml:space="preserve">JIMMY MUTIA MWANZIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">948 - 00518 - NAIROBI</t>
   </si>
   <si>
-    <t xml:space="preserve">0722841148</t>
-  </si>
-  <si>
     <t xml:space="preserve">jimmymwanzia@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUTH WAMBUI MUTIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0724234939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSEPH MUTUA MUTIA</t>
   </si>
   <si>
     <t xml:space="preserve">ELIJAH MWANZIA MUTIA</t>
@@ -2995,7 +3013,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3049,12 +3067,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3115,7 +3127,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3144,10 +3156,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3170,10 +3178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ147"/>
+  <dimension ref="A1:AMJ148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H55" activeCellId="0" sqref="H55"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3637,7 +3645,7 @@
         <v>85</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I8" s="4" t="n">
@@ -4328,7 +4336,7 @@
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C21" s="4" t="n">
@@ -4440,7 +4448,7 @@
       <c r="A23" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C23" s="4" t="n">
@@ -4719,7 +4727,7 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="4" t="s">
         <v>237</v>
       </c>
       <c r="I28" s="4" t="n">
@@ -5596,13 +5604,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>22232734</v>
+        <v>23048776</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>365</v>
@@ -5613,12 +5621,14 @@
       <c r="F45" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="n">
+        <v>311022</v>
+      </c>
       <c r="H45" s="4" t="s">
         <v>368</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>99450007</v>
+        <v>11209583</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>369</v>
@@ -5627,9 +5637,13 @@
         <v>370</v>
       </c>
       <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="M45" s="4" t="s">
+        <v>371</v>
+      </c>
       <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
+      <c r="O45" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
@@ -5638,53 +5652,51 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y45" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>374</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>6692756</v>
+        <v>22232734</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>173</v>
+        <v>376</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F46" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>99360008</v>
+        <v>99450007</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="4" t="s">
-        <v>378</v>
-      </c>
+      <c r="M46" s="4"/>
       <c r="N46" s="4"/>
-      <c r="O46" s="4" t="s">
-        <v>379</v>
-      </c>
+      <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
@@ -5693,49 +5705,53 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Y46" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>30362352</v>
+        <v>6692756</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>384</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>99270009</v>
+        <v>99360008</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="K47" s="4"/>
+        <v>387</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
+      <c r="M47" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
+      <c r="O47" s="4" t="s">
+        <v>390</v>
+      </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
@@ -5744,43 +5760,43 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="X47" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Y47" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>25399890</v>
+        <v>30362352</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>389</v>
+        <v>22</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>99180010</v>
+        <v>99270009</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -5795,13 +5811,13 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="X48" s="4" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Y48" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5809,39 +5825,33 @@
         <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>24569943</v>
+        <v>25399890</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="G49" s="4" t="n">
-        <v>3908875</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>99090011</v>
+        <v>99180010</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>239</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="4" t="s">
-        <v>396</v>
-      </c>
+      <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -5852,9 +5862,11 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="X49" s="4"/>
+        <v>402</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>403</v>
+      </c>
       <c r="Y49" s="4" t="s">
         <v>43</v>
       </c>
@@ -5864,33 +5876,39 @@
         <v>31</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>398</v>
+        <v>237</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>25788203</v>
-      </c>
-      <c r="D50" s="4"/>
+        <v>24569943</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>404</v>
+      </c>
       <c r="E50" s="4" t="s">
-        <v>399</v>
+        <v>238</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>6439054</v>
+        <v>3908875</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>99000012</v>
+        <v>99090011</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="K50" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="M50" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -5901,49 +5919,45 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="X50" s="4" t="s">
-        <v>404</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="X50" s="4"/>
       <c r="Y50" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>22884531</v>
+        <v>25788203</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="G51" s="4"/>
+        <v>411</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>6439054</v>
+      </c>
       <c r="H51" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>98910013</v>
+        <v>99000012</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>410</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
-        <v>411</v>
-      </c>
+      <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -5954,13 +5968,13 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="X51" s="4" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="Y51" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5968,39 +5982,37 @@
         <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>25156184</v>
+        <v>22884531</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>98820014</v>
+        <v>98910013</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="N52" s="4"/>
-      <c r="O52" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
@@ -6009,47 +6021,53 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="X52" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Y52" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>21475280</v>
+        <v>25156184</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F53" s="4"/>
+        <v>424</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>98730015</v>
+        <v>98820014</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
+      <c r="M53" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
+      <c r="O53" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
@@ -6058,118 +6076,116 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Y53" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>245</v>
+        <v>433</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>24646580</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>21475280</v>
+      </c>
+      <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>429</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>98640016</v>
+        <v>98730015</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>243</v>
+        <v>436</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="4" t="s">
-        <v>432</v>
-      </c>
+      <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="4" t="s">
-        <v>433</v>
-      </c>
+      <c r="O54" s="4"/>
       <c r="P54" s="4"/>
-      <c r="Q54" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
+      <c r="W54" s="4" t="s">
+        <v>438</v>
+      </c>
       <c r="X54" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Y54" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>257</v>
+      <c r="B55" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>24748159</v>
-      </c>
-      <c r="D55" s="4"/>
+        <v>24646580</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="E55" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="F55" s="4"/>
+        <v>246</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>440</v>
+      </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>98550017</v>
+        <v>98640016</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
+      <c r="O55" s="4" t="s">
+        <v>444</v>
+      </c>
       <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
+      <c r="Q55" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
-      <c r="W55" s="4" t="s">
-        <v>439</v>
-      </c>
+      <c r="W55" s="4"/>
       <c r="X55" s="4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Y55" s="4" t="s">
         <v>30</v>
@@ -6180,37 +6196,35 @@
         <v>20</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>441</v>
+        <v>257</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>24679727</v>
+        <v>24748159</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>98460018</v>
+        <v>98550017</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="N56" s="4"/>
-      <c r="O56" s="4" t="s">
-        <v>447</v>
-      </c>
+      <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
@@ -6219,40 +6233,36 @@
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Y56" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>21049653</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>451</v>
-      </c>
+        <v>24679727</v>
+      </c>
+      <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="F57" s="5" t="s">
         <v>453</v>
       </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
         <v>454</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>98370019</v>
+        <v>98460018</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>455</v>
@@ -6275,8 +6285,12 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
+      <c r="W57" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="X57" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="Y57" s="4" t="s">
         <v>30</v>
       </c>
@@ -6286,37 +6300,41 @@
         <v>20</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>22618423</v>
-      </c>
-      <c r="D58" s="4"/>
+        <v>21049653</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>462</v>
+      </c>
       <c r="E58" s="4" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>98280020</v>
+        <v>98370019</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
+      <c r="O58" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
@@ -6324,50 +6342,48 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
-      <c r="W58" s="4" t="s">
-        <v>466</v>
-      </c>
+      <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>11753374</v>
+        <v>22618423</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="F59" s="4"/>
+        <v>471</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>472</v>
+      </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>98190021</v>
+        <v>98280020</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>374</v>
+        <v>474</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="N59" s="4"/>
-      <c r="O59" s="4" t="s">
-        <v>471</v>
-      </c>
+      <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
@@ -6375,44 +6391,50 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
+      <c r="W59" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="X59" s="4"/>
       <c r="Y59" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>23157007</v>
+        <v>11753374</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>474</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>98100022</v>
+        <v>98190021</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="K60" s="4"/>
+        <v>385</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="M60" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
+      <c r="O60" s="4" t="s">
+        <v>482</v>
+      </c>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
@@ -6421,9 +6443,7 @@
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
-      <c r="X60" s="4" t="s">
-        <v>477</v>
-      </c>
+      <c r="X60" s="4"/>
       <c r="Y60" s="4" t="s">
         <v>30</v>
       </c>
@@ -6433,35 +6453,31 @@
         <v>20</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C61" s="4" t="n">
-        <v>10682971</v>
+        <v>23157007</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="I61" s="4" t="n">
-        <v>98010023</v>
+        <v>98100022</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>483</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="4" t="s">
-        <v>484</v>
-      </c>
+      <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -6471,52 +6487,50 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
-      <c r="W61" s="4" t="s">
-        <v>348</v>
-      </c>
+      <c r="W61" s="4"/>
       <c r="X61" s="4" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="Y61" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C62" s="4" t="n">
-        <v>21637345</v>
+        <v>10682971</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="F62" s="4"/>
+        <v>490</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>97920024</v>
+        <v>98010023</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="N62" s="4"/>
-      <c r="O62" s="4" t="s">
-        <v>492</v>
-      </c>
+      <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
@@ -6525,54 +6539,50 @@
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4" t="s">
-        <v>493</v>
+        <v>348</v>
       </c>
       <c r="X62" s="4" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="Y62" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C63" s="4" t="n">
-        <v>20820940</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>495</v>
-      </c>
+        <v>21637345</v>
+      </c>
+      <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>497</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>97830025</v>
+        <v>97920024</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N63" s="4"/>
       <c r="O63" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
@@ -6581,9 +6591,11 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
+      <c r="W63" s="4" t="s">
+        <v>504</v>
+      </c>
       <c r="X63" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y63" s="4" t="s">
         <v>30</v>
@@ -6591,43 +6603,43 @@
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C64" s="4" t="n">
-        <v>11189089</v>
+        <v>20820940</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>277</v>
+        <v>509</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>97740026</v>
+        <v>97830025</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
@@ -6636,14 +6648,12 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
-      <c r="W64" s="4" t="s">
-        <v>512</v>
-      </c>
+      <c r="W64" s="4"/>
       <c r="X64" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Y64" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6651,28 +6661,26 @@
         <v>31</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C65" s="4" t="n">
-        <v>22955421</v>
+        <v>11189089</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="G65" s="4" t="n">
-        <v>1384494</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>518</v>
+        <v>277</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>97650027</v>
+        <v>97740026</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>519</v>
@@ -6689,31 +6697,31 @@
         <v>522</v>
       </c>
       <c r="P65" s="4"/>
-      <c r="Q65" s="4" t="s">
-        <v>523</v>
-      </c>
+      <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="X65" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="X65" s="4"/>
       <c r="Y65" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>525</v>
       </c>
       <c r="C66" s="4" t="n">
-        <v>21027107</v>
+        <v>22955421</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>526</v>
@@ -6725,13 +6733,13 @@
         <v>528</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>3474735</v>
+        <v>1384494</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>529</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>97560028</v>
+        <v>97650027</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>530</v>
@@ -6740,66 +6748,68 @@
         <v>531</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
+      <c r="M66" s="4" t="s">
+        <v>532</v>
+      </c>
       <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
+      <c r="O66" s="4" t="s">
+        <v>533</v>
+      </c>
       <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
+      <c r="Q66" s="4" t="s">
+        <v>534</v>
+      </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="X66" s="4" t="s">
-        <v>533</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="X66" s="4"/>
       <c r="Y66" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C67" s="4" t="n">
-        <v>573695</v>
+        <v>21027107</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="F67" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="G67" s="4" t="n">
-        <v>5212676</v>
+        <v>3474735</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>97470029</v>
+        <v>97560028</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="M67" s="4"/>
       <c r="N67" s="4"/>
-      <c r="O67" s="4" t="s">
-        <v>541</v>
-      </c>
+      <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
@@ -6807,8 +6817,12 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
+      <c r="W67" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="X67" s="4" t="s">
+        <v>544</v>
+      </c>
       <c r="Y67" s="4" t="s">
         <v>30</v>
       </c>
@@ -6818,36 +6832,40 @@
         <v>20</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C68" s="4" t="n">
-        <v>22149543</v>
-      </c>
-      <c r="D68" s="4"/>
+        <v>573695</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>546</v>
+      </c>
       <c r="E68" s="4" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="G68" s="4" t="n">
+        <v>5212676</v>
+      </c>
       <c r="H68" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>97380030</v>
+        <v>97470029</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
@@ -6862,44 +6880,42 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C69" s="4" t="n">
-        <v>25985347</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>22149543</v>
+      </c>
+      <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>551</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>97290031</v>
+        <v>97380030</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
+      <c r="O69" s="4" t="s">
+        <v>559</v>
+      </c>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -6908,44 +6924,46 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-      <c r="X69" s="4" t="s">
-        <v>556</v>
-      </c>
+      <c r="X69" s="4"/>
       <c r="Y69" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C70" s="4" t="n">
-        <v>22992299</v>
-      </c>
-      <c r="D70" s="4"/>
+        <v>25985347</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E70" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="F70" s="4"/>
+        <v>561</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>562</v>
+      </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>97200032</v>
+        <v>97290031</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -6956,10 +6974,10 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
-      <c r="W70" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="X70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4" t="s">
+        <v>567</v>
+      </c>
       <c r="Y70" s="4" t="s">
         <v>30</v>
       </c>
@@ -6969,29 +6987,33 @@
         <v>20</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C71" s="4" t="n">
-        <v>13</v>
+        <v>22992299</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>338</v>
+        <v>569</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4" t="s">
-        <v>334</v>
+        <v>570</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>97110033</v>
+        <v>97200032</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="K71" s="4"/>
+        <v>571</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
+      <c r="M71" s="4" t="s">
+        <v>573</v>
+      </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -7001,56 +7023,44 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4" t="s">
-        <v>565</v>
-      </c>
+      <c r="W71" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="X71" s="4"/>
       <c r="Y71" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="C72" s="4" t="n">
-        <v>14705530</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>567</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="G72" s="4" t="n">
-        <v>2539669</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
       <c r="H72" s="4" t="s">
-        <v>570</v>
+        <v>334</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>97020034</v>
+        <v>97110033</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>572</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="4" t="s">
-        <v>573</v>
-      </c>
+      <c r="M72" s="4"/>
       <c r="N72" s="4"/>
-      <c r="O72" s="4" t="s">
-        <v>574</v>
-      </c>
+      <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
@@ -7058,51 +7068,55 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
-      <c r="W72" s="4" t="s">
-        <v>575</v>
-      </c>
+      <c r="W72" s="4"/>
       <c r="X72" s="4" t="s">
         <v>576</v>
       </c>
       <c r="Y72" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>577</v>
       </c>
       <c r="C73" s="4" t="n">
-        <v>22972244</v>
-      </c>
-      <c r="D73" s="4"/>
+        <v>14705530</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>578</v>
+      </c>
       <c r="E73" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+        <v>579</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="G73" s="4" t="n">
+        <v>2539669</v>
+      </c>
       <c r="H73" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>96930035</v>
+        <v>97020034</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L73" s="4"/>
       <c r="M73" s="4" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
@@ -7111,164 +7125,160 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
+      <c r="W73" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="X73" s="4" t="s">
-        <v>144</v>
+        <v>587</v>
       </c>
       <c r="Y73" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>47</v>
+        <v>588</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>9455055</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>22972244</v>
+      </c>
+      <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="G74" s="4" t="n">
-        <v>6170875</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
-        <v>44</v>
+        <v>590</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>96840036</v>
+        <v>96930035</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>45</v>
+        <v>591</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="P74" s="4"/>
-      <c r="Q74" s="4" t="s">
-        <v>588</v>
-      </c>
+      <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
-      <c r="W74" s="4" t="s">
-        <v>589</v>
-      </c>
+      <c r="W74" s="4"/>
       <c r="X74" s="4" t="s">
-        <v>590</v>
+        <v>144</v>
       </c>
       <c r="Y74" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>591</v>
+        <v>47</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>21211896</v>
-      </c>
-      <c r="D75" s="4"/>
+        <v>9455055</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="E75" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="G75" s="4" t="n">
+        <v>6170875</v>
+      </c>
       <c r="H75" s="4" t="s">
-        <v>593</v>
+        <v>44</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>96750037</v>
+        <v>96840036</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>594</v>
+        <v>45</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
+      <c r="M75" s="4" t="s">
+        <v>597</v>
+      </c>
       <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
+      <c r="O75" s="4" t="s">
+        <v>598</v>
+      </c>
       <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
+      <c r="Q75" s="4" t="s">
+        <v>599</v>
+      </c>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="4" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="X75" s="4" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="Y75" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>20091494</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>21211896</v>
+      </c>
+      <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>599</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>96660038</v>
+        <v>96750037</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>342</v>
+        <v>605</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>345</v>
+        <v>606</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="4" t="s">
-        <v>346</v>
-      </c>
+      <c r="M76" s="4"/>
       <c r="N76" s="4"/>
-      <c r="O76" s="4" t="s">
-        <v>347</v>
-      </c>
+      <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
@@ -7276,10 +7286,14 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
+      <c r="W76" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="X76" s="4" t="s">
+        <v>608</v>
+      </c>
       <c r="Y76" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7287,39 +7301,41 @@
         <v>31</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>25678383</v>
+        <v>20091494</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="I77" s="4" t="n">
-        <v>96570039</v>
+        <v>96660038</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>604</v>
+        <v>345</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="4" t="s">
-        <v>605</v>
+        <v>346</v>
       </c>
       <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
+      <c r="O77" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
@@ -7327,52 +7343,50 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
-      <c r="W77" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="X77" s="4" t="s">
-        <v>607</v>
-      </c>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
       <c r="Y77" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>27320974</v>
-      </c>
-      <c r="D78" s="4"/>
+        <v>25678383</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E78" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="F78" s="4"/>
+        <v>273</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>613</v>
+      </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>96480040</v>
+        <v>96570039</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>611</v>
+        <v>271</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="L78" s="4"/>
       <c r="M78" s="4" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="N78" s="4"/>
-      <c r="O78" s="4" t="s">
-        <v>614</v>
-      </c>
+      <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
@@ -7380,10 +7394,14 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
+      <c r="W78" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="X78" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="Y78" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,41 +7409,39 @@
         <v>20</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>20422689</v>
+        <v>27320974</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>96390041</v>
+        <v>96480040</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="N79" s="4"/>
       <c r="O79" s="4" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="P79" s="4"/>
-      <c r="Q79" s="4" t="s">
-        <v>622</v>
-      </c>
+      <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
@@ -7439,94 +7455,90 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>21004910</v>
+        <v>20422689</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>580</v>
+        <v>627</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>577</v>
+        <v>628</v>
       </c>
       <c r="I80" s="4" t="n">
-        <v>96300042</v>
+        <v>96390041</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>581</v>
+        <v>630</v>
       </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="N80" s="4"/>
       <c r="O80" s="4" t="s">
-        <v>583</v>
+        <v>632</v>
       </c>
       <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
+      <c r="Q80" s="4" t="s">
+        <v>633</v>
+      </c>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
-      <c r="W80" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="X80" s="4" t="s">
-        <v>625</v>
-      </c>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
       <c r="Y80" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>3014633</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>627</v>
-      </c>
+        <v>21004910</v>
+      </c>
+      <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>628</v>
+        <v>591</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>629</v>
+        <v>588</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>96210043</v>
+        <v>96300042</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>630</v>
+        <v>589</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>631</v>
+        <v>592</v>
       </c>
       <c r="L81" s="4"/>
       <c r="M81" s="4" t="s">
-        <v>632</v>
+        <v>593</v>
       </c>
       <c r="N81" s="4"/>
       <c r="O81" s="4" t="s">
-        <v>633</v>
+        <v>594</v>
       </c>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
@@ -7536,13 +7548,13 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="X81" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Y81" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7550,38 +7562,38 @@
         <v>20</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>22120458</v>
+        <v>3014633</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>96120044</v>
+        <v>96210043</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L82" s="4"/>
       <c r="M82" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
@@ -7591,40 +7603,38 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="X82" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Y82" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>11646913</v>
+        <v>22120458</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="F83" s="5" t="s">
         <v>649</v>
       </c>
+      <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4" t="s">
         <v>650</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>96030045</v>
+        <v>96120044</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>651</v>
@@ -7637,7 +7647,9 @@
         <v>653</v>
       </c>
       <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
+      <c r="O83" s="4" t="s">
+        <v>654</v>
+      </c>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
@@ -7646,46 +7658,50 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="X83" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Y83" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>29797665</v>
-      </c>
-      <c r="D84" s="4"/>
+        <v>11646913</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>658</v>
+      </c>
       <c r="E84" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="F84" s="4"/>
+        <v>659</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>660</v>
+      </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>95940046</v>
+        <v>96030045</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -7697,10 +7713,10 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="4" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="X84" s="4" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="Y84" s="4" t="s">
         <v>30</v>
@@ -7708,42 +7724,38 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>25895716</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>665</v>
-      </c>
+        <v>29797665</v>
+      </c>
+      <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>416</v>
+        <v>668</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="I85" s="4" t="n">
-        <v>95850047</v>
+        <v>95940046</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>413</v>
+        <v>670</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="N85" s="4"/>
-      <c r="O85" s="4" t="s">
-        <v>669</v>
-      </c>
+      <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
@@ -7752,45 +7764,53 @@
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="X85" s="4"/>
+        <v>673</v>
+      </c>
+      <c r="X85" s="4" t="s">
+        <v>674</v>
+      </c>
       <c r="Y85" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C86" s="4" t="n">
-        <v>22287327</v>
-      </c>
-      <c r="D86" s="4"/>
+        <v>25895716</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>676</v>
+      </c>
       <c r="E86" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>672</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="I86" s="4" t="n">
-        <v>95760048</v>
+        <v>95850047</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="K86" s="4"/>
+        <v>424</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>678</v>
+      </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
+      <c r="M86" s="4" t="s">
+        <v>679</v>
+      </c>
       <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
+      <c r="O86" s="4" t="s">
+        <v>680</v>
+      </c>
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
@@ -7798,7 +7818,9 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
-      <c r="W86" s="4"/>
+      <c r="W86" s="4" t="s">
+        <v>681</v>
+      </c>
       <c r="X86" s="4"/>
       <c r="Y86" s="4" t="s">
         <v>43</v>
@@ -7809,37 +7831,31 @@
         <v>31</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="C87" s="4" t="n">
-        <v>1342331</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>22287327</v>
+      </c>
+      <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>675</v>
+        <v>487</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="G87" s="4"/>
-      <c r="H87" s="7" t="s">
-        <v>549</v>
+      <c r="H87" s="4" t="s">
+        <v>684</v>
       </c>
       <c r="I87" s="4" t="n">
-        <v>95670049</v>
+        <v>95760048</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>677</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="K87" s="4"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="4" t="s">
-        <v>678</v>
-      </c>
+      <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -7849,46 +7865,48 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
-      <c r="W87" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="X87" s="4" t="s">
-        <v>680</v>
-      </c>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
       <c r="Y87" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C88" s="4" t="n">
-        <v>22723424</v>
-      </c>
-      <c r="D88" s="4"/>
+        <v>1342331</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="E88" s="4" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4" t="s">
-        <v>684</v>
+        <v>560</v>
       </c>
       <c r="I88" s="4" t="n">
-        <v>95580050</v>
+        <v>95670049</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="K88" s="4"/>
+        <v>561</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>688</v>
+      </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
+      <c r="M88" s="4" t="s">
+        <v>689</v>
+      </c>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
@@ -7899,47 +7917,43 @@
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
       <c r="W88" s="4" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="X88" s="4" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="Y88" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C89" s="4" t="n">
-        <v>20500396</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>689</v>
-      </c>
+        <v>22723424</v>
+      </c>
+      <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>594</v>
+        <v>693</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="I89" s="4" t="n">
-        <v>95490051</v>
+        <v>95580050</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>692</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
@@ -7952,11 +7966,13 @@
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
       <c r="W89" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="X89" s="4"/>
+        <v>697</v>
+      </c>
+      <c r="X89" s="4" t="s">
+        <v>698</v>
+      </c>
       <c r="Y89" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7964,37 +7980,35 @@
         <v>31</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C90" s="4" t="n">
-        <v>24064103</v>
+        <v>20500396</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>696</v>
+        <v>605</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="I90" s="4" t="n">
-        <v>95400052</v>
+        <v>95490051</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>699</v>
+        <v>603</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="4" t="s">
-        <v>701</v>
-      </c>
+      <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -8005,47 +8019,49 @@
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
       <c r="W90" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="X90" s="4" t="s">
-        <v>703</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="X90" s="4"/>
       <c r="Y90" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>385</v>
+        <v>705</v>
       </c>
       <c r="C91" s="4" t="n">
-        <v>28830646</v>
+        <v>24064103</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>146</v>
+        <v>706</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>704</v>
+        <v>707</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>708</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="I91" s="4" t="n">
-        <v>95310053</v>
+        <v>95400052</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="K91" s="4"/>
+        <v>710</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>711</v>
+      </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
+      <c r="M91" s="4" t="s">
+        <v>712</v>
+      </c>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -8056,10 +8072,10 @@
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
       <c r="W91" s="4" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="X91" s="4" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="Y91" s="4" t="s">
         <v>43</v>
@@ -8067,40 +8083,38 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>708</v>
+        <v>396</v>
       </c>
       <c r="C92" s="4" t="n">
-        <v>22577613</v>
-      </c>
-      <c r="D92" s="4"/>
+        <v>28830646</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="E92" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="F92" s="4"/>
+        <v>397</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>715</v>
+      </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="I92" s="4" t="n">
-        <v>95220054</v>
+        <v>95310053</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>712</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="K92" s="4"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="4" t="s">
-        <v>713</v>
-      </c>
+      <c r="M92" s="4"/>
       <c r="N92" s="4"/>
-      <c r="O92" s="4" t="s">
-        <v>714</v>
-      </c>
+      <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
@@ -8109,40 +8123,36 @@
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="X92" s="4" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Y92" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C93" s="4" t="n">
-        <v>11209583</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>718</v>
-      </c>
+        <v>22577613</v>
+      </c>
+      <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="F93" s="6" t="s">
         <v>720</v>
       </c>
+      <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4" t="s">
         <v>721</v>
       </c>
       <c r="I93" s="4" t="n">
-        <v>95130055</v>
+        <v>95220054</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>722</v>
@@ -8165,52 +8175,56 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
+      <c r="W93" s="4" t="s">
+        <v>726</v>
+      </c>
       <c r="X93" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="Y93" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>727</v>
+        <v>368</v>
       </c>
       <c r="C94" s="4" t="n">
-        <v>25002201</v>
-      </c>
-      <c r="D94" s="4"/>
+        <v>11209583</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>728</v>
+      </c>
       <c r="E94" s="4" t="s">
-        <v>728</v>
+        <v>369</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="G94" s="4" t="n">
-        <v>2099675</v>
-      </c>
+      <c r="G94" s="4"/>
       <c r="H94" s="4" t="s">
-        <v>730</v>
+        <v>364</v>
       </c>
       <c r="I94" s="4" t="n">
-        <v>95040056</v>
+        <v>95130055</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>731</v>
+        <v>366</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>732</v>
+        <v>370</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
+      <c r="O94" s="4" t="s">
+        <v>731</v>
+      </c>
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
@@ -8219,9 +8233,11 @@
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
-      <c r="X94" s="4"/>
+      <c r="X94" s="4" t="s">
+        <v>732</v>
+      </c>
       <c r="Y94" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8229,22 +8245,26 @@
         <v>20</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C95" s="4" t="n">
-        <v>11340544</v>
+        <v>25002201</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="G95" s="4" t="n">
+        <v>2099675</v>
+      </c>
       <c r="H95" s="4" t="s">
         <v>736</v>
       </c>
       <c r="I95" s="4" t="n">
-        <v>94950057</v>
+        <v>95040056</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>737</v>
@@ -8257,9 +8277,7 @@
         <v>739</v>
       </c>
       <c r="N95" s="4"/>
-      <c r="O95" s="4" t="s">
-        <v>740</v>
-      </c>
+      <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
@@ -8278,25 +8296,25 @@
         <v>20</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="C96" s="8" t="n">
-        <v>234487188</v>
+        <v>740</v>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>11340544</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="I96" s="4" t="n">
+        <v>94950057</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>743</v>
-      </c>
-      <c r="I96" s="4" t="n">
-        <v>94860058</v>
-      </c>
-      <c r="J96" s="4" t="n">
-        <v>1111111</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>744</v>
@@ -8306,7 +8324,9 @@
         <v>745</v>
       </c>
       <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
+      <c r="O96" s="4" t="s">
+        <v>746</v>
+      </c>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
@@ -8322,36 +8342,36 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="C97" s="4" t="n">
-        <v>30101820</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>146</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="C97" s="7" t="n">
+        <v>234487188</v>
+      </c>
+      <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>747</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="I97" s="4" t="n">
-        <v>94770059</v>
+        <v>94860058</v>
       </c>
       <c r="J97" s="4" t="n">
-        <v>1111112</v>
-      </c>
-      <c r="K97" s="4"/>
+        <v>1111111</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>750</v>
+      </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
+      <c r="M97" s="4" t="s">
+        <v>751</v>
+      </c>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
@@ -8361,14 +8381,10 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
-      <c r="W97" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="X97" s="4" t="s">
-        <v>748</v>
-      </c>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
       <c r="Y97" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8376,33 +8392,33 @@
         <v>31</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C98" s="4" t="n">
+        <v>30101820</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="C98" s="4" t="n">
-        <v>23106523</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
       <c r="I98" s="4" t="n">
-        <v>94680060</v>
+        <v>94770059</v>
       </c>
       <c r="J98" s="4" t="n">
-        <v>1111113</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>752</v>
-      </c>
+        <v>1111112</v>
+      </c>
+      <c r="K98" s="4"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="4" t="s">
-        <v>753</v>
-      </c>
+      <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
@@ -8413,10 +8429,10 @@
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
       <c r="W98" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="X98" s="4" t="s">
         <v>754</v>
-      </c>
-      <c r="X98" s="4" t="s">
-        <v>755</v>
       </c>
       <c r="Y98" s="4" t="s">
         <v>43</v>
@@ -8427,36 +8443,32 @@
         <v>31</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>23106523</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="C99" s="4" t="n">
-        <v>22840074</v>
-      </c>
-      <c r="D99" s="4" t="s">
+      <c r="F99" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="G99" s="4" t="n">
-        <v>2320044</v>
-      </c>
+      <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4" t="n">
-        <v>94590061</v>
+        <v>94680060</v>
       </c>
       <c r="J99" s="4" t="n">
-        <v>1111114</v>
+        <v>1111113</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -8467,21 +8479,25 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
-      <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
+      <c r="W99" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="X99" s="4" t="s">
+        <v>761</v>
+      </c>
       <c r="Y99" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>762</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>14</v>
+        <v>22840074</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>763</v>
@@ -8489,20 +8505,26 @@
       <c r="E100" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="G100" s="4"/>
+      <c r="G100" s="4" t="n">
+        <v>2320044</v>
+      </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4" t="n">
-        <v>94500062</v>
+        <v>94590061</v>
       </c>
       <c r="J100" s="4" t="n">
-        <v>1111115</v>
-      </c>
-      <c r="K100" s="4"/>
+        <v>1111114</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>766</v>
+      </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
+      <c r="M100" s="4" t="s">
+        <v>767</v>
+      </c>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
@@ -8512,17 +8534,13 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
-      <c r="W100" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="X100" s="4" t="s">
-        <v>767</v>
-      </c>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
       <c r="Y100" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
         <v>20</v>
       </c>
@@ -8530,20 +8548,24 @@
         <v>768</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>24909543</v>
-      </c>
-      <c r="D101" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>769</v>
+      </c>
       <c r="E101" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="F101" s="4"/>
+        <v>770</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>771</v>
+      </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4" t="n">
-        <v>94410063</v>
+        <v>94500062</v>
       </c>
       <c r="J101" s="4" t="n">
-        <v>1111116</v>
+        <v>1111115</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -8557,42 +8579,38 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
+      <c r="W101" s="4" t="s">
+        <v>772</v>
+      </c>
       <c r="X101" s="4" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="Y101" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C102" s="4" t="n">
-        <v>28341870</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>772</v>
-      </c>
+        <v>24909543</v>
+      </c>
+      <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="G102" s="4" t="n">
-        <v>6020671</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4" t="n">
-        <v>94320064</v>
+        <v>94410063</v>
       </c>
       <c r="J102" s="4" t="n">
-        <v>1111117</v>
+        <v>1111116</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -8606,50 +8624,48 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
-      <c r="W102" s="4" t="s">
-        <v>775</v>
-      </c>
+      <c r="W102" s="4"/>
       <c r="X102" s="4" t="s">
         <v>776</v>
       </c>
       <c r="Y102" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>777</v>
       </c>
       <c r="C103" s="4" t="n">
-        <v>14417958</v>
-      </c>
-      <c r="D103" s="4"/>
+        <v>28341870</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>778</v>
+      </c>
       <c r="E103" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+        <v>779</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="G103" s="4" t="n">
+        <v>6020671</v>
+      </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4" t="n">
-        <v>94230065</v>
+        <v>94320064</v>
       </c>
       <c r="J103" s="4" t="n">
-        <v>1111118</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>779</v>
-      </c>
+        <v>1111117</v>
+      </c>
+      <c r="K103" s="4"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="4" t="s">
-        <v>780</v>
-      </c>
+      <c r="M103" s="4"/>
       <c r="N103" s="4"/>
-      <c r="O103" s="4" t="s">
-        <v>781</v>
-      </c>
+      <c r="O103" s="4"/>
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
@@ -8658,47 +8674,49 @@
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
       <c r="W103" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="X103" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="X103" s="4" t="s">
+      <c r="Y103" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="Y103" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" s="4" t="s">
+      <c r="C104" s="4" t="n">
+        <v>14417958</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="C104" s="4" t="n">
-        <v>22670477</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>787</v>
-      </c>
+      <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4" t="n">
-        <v>94140066</v>
+        <v>94230065</v>
       </c>
       <c r="J104" s="4" t="n">
-        <v>1111119</v>
-      </c>
-      <c r="K104" s="4"/>
+        <v>1111118</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>785</v>
+      </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
+      <c r="M104" s="4" t="s">
+        <v>786</v>
+      </c>
       <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
+      <c r="O104" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
@@ -8706,10 +8724,14 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
-      <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
+      <c r="W104" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="X104" s="4" t="s">
+        <v>789</v>
+      </c>
       <c r="Y104" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8717,27 +8739,27 @@
         <v>31</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C105" s="4" t="n">
-        <v>26992250</v>
-      </c>
-      <c r="D105" s="4"/>
+        <v>22670477</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>791</v>
+      </c>
       <c r="E105" s="4" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="G105" s="4"/>
-      <c r="H105" s="4" t="s">
-        <v>791</v>
-      </c>
+      <c r="H105" s="4"/>
       <c r="I105" s="4" t="n">
-        <v>94050067</v>
+        <v>94140066</v>
       </c>
       <c r="J105" s="4" t="n">
-        <v>1111120</v>
+        <v>1111119</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -8751,17 +8773,13 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
-      <c r="W105" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="X105" s="4" t="s">
-        <v>793</v>
-      </c>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
       <c r="Y105" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>31</v>
       </c>
@@ -8769,22 +8787,24 @@
         <v>794</v>
       </c>
       <c r="C106" s="4" t="n">
-        <v>29888953</v>
+        <v>26992250</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="F106" s="4"/>
+      <c r="F106" s="5" t="s">
+        <v>796</v>
+      </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I106" s="4" t="n">
-        <v>93960068</v>
+        <v>94050067</v>
       </c>
       <c r="J106" s="4" t="n">
-        <v>1111121</v>
+        <v>1111120</v>
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -8799,37 +8819,39 @@
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
       <c r="W106" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="X106" s="4"/>
+        <v>798</v>
+      </c>
+      <c r="X106" s="4" t="s">
+        <v>799</v>
+      </c>
       <c r="Y106" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>14671588</v>
+        <v>29888953</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="I107" s="4" t="n">
-        <v>93870069</v>
+        <v>93960068</v>
       </c>
       <c r="J107" s="4" t="n">
-        <v>1111122</v>
+        <v>1111121</v>
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -8844,45 +8866,41 @@
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
       <c r="W107" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="X107" s="4"/>
       <c r="Y107" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C108" s="4" t="n">
-        <v>1343827</v>
+        <v>14671588</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
       <c r="I108" s="4" t="n">
-        <v>93780070</v>
+        <v>93870069</v>
       </c>
       <c r="J108" s="4" t="n">
-        <v>1111123</v>
-      </c>
-      <c r="K108" s="4" t="s">
-        <v>804</v>
-      </c>
+        <v>1111122</v>
+      </c>
+      <c r="K108" s="4"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="4" t="s">
-        <v>805</v>
-      </c>
+      <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
@@ -8895,9 +8913,7 @@
       <c r="W108" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="X108" s="4" t="s">
-        <v>807</v>
-      </c>
+      <c r="X108" s="4"/>
       <c r="Y108" s="4" t="s">
         <v>30</v>
       </c>
@@ -8907,32 +8923,32 @@
         <v>20</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C109" s="4" t="n">
-        <v>23003427</v>
+        <v>1343827</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>809</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>810</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4" t="n">
-        <v>93690071</v>
+        <v>93780070</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>1111124</v>
+        <v>1111123</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -8944,41 +8960,47 @@
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
       <c r="W109" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="X109" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="X109" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="Y109" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C110" s="4" t="n">
-        <v>32432702</v>
+        <v>23003427</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F110" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4" t="n">
-        <v>93600072</v>
+        <v>93690071</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>1111125</v>
-      </c>
-      <c r="K110" s="4"/>
+        <v>1111124</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>817</v>
+      </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
+      <c r="M110" s="4" t="s">
+        <v>818</v>
+      </c>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
@@ -8989,39 +9011,37 @@
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
       <c r="W110" s="4" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="X110" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="Y110" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C111" s="4" t="n">
-        <v>28535603</v>
+        <v>32432702</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>821</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4" t="n">
-        <v>93510073</v>
+        <v>93600072</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>1111126</v>
+        <v>1111125</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -9036,10 +9056,10 @@
       <c r="U111" s="4"/>
       <c r="V111" s="4"/>
       <c r="W111" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="X111" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Y111" s="4" t="s">
         <v>43</v>
@@ -9047,30 +9067,28 @@
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C112" s="4" t="n">
-        <v>32582361</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>28535603</v>
+      </c>
+      <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4" t="n">
-        <v>93420074</v>
+        <v>93510073</v>
       </c>
       <c r="J112" s="4" t="n">
-        <v>1111127</v>
+        <v>1111126</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -9085,13 +9103,13 @@
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
       <c r="W112" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="X112" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="Y112" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9099,29 +9117,27 @@
         <v>20</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C113" s="4" t="n">
-        <v>3127820</v>
+        <v>32582361</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G113" s="4"/>
-      <c r="H113" s="4" t="s">
-        <v>791</v>
-      </c>
+      <c r="H113" s="4"/>
       <c r="I113" s="4" t="n">
-        <v>93330075</v>
+        <v>93420074</v>
       </c>
       <c r="J113" s="4" t="n">
-        <v>1111128</v>
+        <v>1111127</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -9135,9 +9151,11 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
-      <c r="W113" s="4"/>
+      <c r="W113" s="4" t="s">
+        <v>833</v>
+      </c>
       <c r="X113" s="4" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="Y113" s="4" t="s">
         <v>30</v>
@@ -9148,31 +9166,29 @@
         <v>20</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C114" s="4" t="n">
-        <v>20689001</v>
+        <v>3127820</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="G114" s="4" t="n">
-        <v>2940942</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="G114" s="4"/>
       <c r="H114" s="4" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="I114" s="4" t="n">
-        <v>93240076</v>
+        <v>93330075</v>
       </c>
       <c r="J114" s="4" t="n">
-        <v>1111129</v>
+        <v>1111128</v>
       </c>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -9188,111 +9204,113 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="4" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="Y114" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C115" s="4" t="n">
-        <v>6258662</v>
+        <v>20689001</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
+        <v>840</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="G115" s="4" t="n">
+        <v>2940942</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>797</v>
+      </c>
       <c r="I115" s="4" t="n">
-        <v>93150077</v>
+        <v>93240076</v>
       </c>
       <c r="J115" s="4" t="n">
-        <v>1111130</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>839</v>
-      </c>
+        <v>1111129</v>
+      </c>
+      <c r="K115" s="4"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="4" t="s">
-        <v>840</v>
-      </c>
+      <c r="M115" s="4"/>
       <c r="N115" s="4"/>
-      <c r="O115" s="4" t="s">
-        <v>841</v>
-      </c>
+      <c r="O115" s="4"/>
       <c r="P115" s="4"/>
-      <c r="Q115" s="4" t="s">
-        <v>842</v>
-      </c>
+      <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
-      <c r="W115" s="4" t="s">
-        <v>843</v>
-      </c>
+      <c r="W115" s="4"/>
       <c r="X115" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="Y115" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C116" s="4" t="n">
-        <v>15</v>
+        <v>6258662</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>847</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4" t="n">
-        <v>93060078</v>
+        <v>93150077</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>1111131</v>
-      </c>
-      <c r="K116" s="4"/>
+        <v>1111130</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>845</v>
+      </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
+      <c r="M116" s="4" t="s">
+        <v>846</v>
+      </c>
       <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
+      <c r="O116" s="4" t="s">
+        <v>847</v>
+      </c>
       <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
+      <c r="Q116" s="4" t="s">
+        <v>848</v>
+      </c>
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
       <c r="W116" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="X116" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="Y116" s="4" t="s">
         <v>30</v>
@@ -9303,29 +9321,29 @@
         <v>20</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C117" s="4" t="n">
-        <v>24224849</v>
-      </c>
-      <c r="D117" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E117" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4" t="n">
-        <v>92970079</v>
+        <v>93060078</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>1111132</v>
-      </c>
-      <c r="K117" s="4" t="s">
-        <v>853</v>
-      </c>
+        <v>1111131</v>
+      </c>
+      <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
@@ -9340,41 +9358,43 @@
       <c r="W117" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="X117" s="4"/>
+      <c r="X117" s="4" t="s">
+        <v>855</v>
+      </c>
       <c r="Y117" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C118" s="4" t="n">
-        <v>7571063</v>
+        <v>24224849</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="F118" s="4"/>
+        <v>857</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>858</v>
+      </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4" t="n">
-        <v>92880080</v>
+        <v>92970079</v>
       </c>
       <c r="J118" s="4" t="n">
-        <v>1111133</v>
+        <v>1111132</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="4" t="s">
-        <v>858</v>
-      </c>
+      <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
@@ -9384,44 +9404,44 @@
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
-      <c r="W118" s="4"/>
-      <c r="X118" s="4" t="s">
-        <v>859</v>
-      </c>
+      <c r="W118" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="X118" s="4"/>
       <c r="Y118" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C119" s="4" t="n">
-        <v>34012006</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>279</v>
-      </c>
+        <v>7571063</v>
+      </c>
+      <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="F119" s="5" t="s">
         <v>862</v>
       </c>
+      <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4" t="n">
-        <v>92790081</v>
+        <v>92880080</v>
       </c>
       <c r="J119" s="4" t="n">
-        <v>1111134</v>
-      </c>
-      <c r="K119" s="4"/>
+        <v>1111133</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>863</v>
+      </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
+      <c r="M119" s="4" t="s">
+        <v>864</v>
+      </c>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
@@ -9431,14 +9451,12 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
-      <c r="W119" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="W119" s="4"/>
       <c r="X119" s="4" t="s">
-        <v>286</v>
+        <v>865</v>
       </c>
       <c r="Y119" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9446,27 +9464,27 @@
         <v>31</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C120" s="4" t="n">
-        <v>33323233</v>
+        <v>34012006</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4" t="n">
-        <v>92700082</v>
+        <v>92790081</v>
       </c>
       <c r="J120" s="4" t="n">
-        <v>1111135</v>
+        <v>1111134</v>
       </c>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
@@ -9481,49 +9499,47 @@
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
       <c r="W120" s="4" t="s">
-        <v>717</v>
+        <v>285</v>
       </c>
       <c r="X120" s="4" t="s">
-        <v>866</v>
+        <v>286</v>
       </c>
       <c r="Y120" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C121" s="4" t="n">
-        <v>23543768</v>
-      </c>
-      <c r="D121" s="4"/>
+        <v>33323233</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E121" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="F121" s="4"/>
+        <v>870</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>871</v>
+      </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4" t="n">
-        <v>92610083</v>
+        <v>92700082</v>
       </c>
       <c r="J121" s="4" t="n">
-        <v>1111136</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>869</v>
-      </c>
+        <v>1111135</v>
+      </c>
+      <c r="K121" s="4"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="4" t="s">
-        <v>870</v>
-      </c>
+      <c r="M121" s="4"/>
       <c r="N121" s="4"/>
-      <c r="O121" s="4" t="s">
-        <v>871</v>
-      </c>
+      <c r="O121" s="4"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
@@ -9531,15 +9547,17 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
-      <c r="W121" s="4"/>
+      <c r="W121" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="X121" s="4" t="s">
         <v>872</v>
       </c>
       <c r="Y121" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
         <v>20</v>
       </c>
@@ -9547,30 +9565,32 @@
         <v>873</v>
       </c>
       <c r="C122" s="4" t="n">
-        <v>32749161</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>23543768</v>
+      </c>
+      <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="F122" s="5" t="s">
-        <v>875</v>
-      </c>
+      <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4" t="n">
-        <v>92520084</v>
+        <v>92610083</v>
       </c>
       <c r="J122" s="4" t="n">
-        <v>1111137</v>
-      </c>
-      <c r="K122" s="4"/>
+        <v>1111136</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>875</v>
+      </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
+      <c r="M122" s="4" t="s">
+        <v>876</v>
+      </c>
       <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
+      <c r="O122" s="4" t="s">
+        <v>877</v>
+      </c>
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
@@ -9578,38 +9598,40 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
-      <c r="W122" s="4" t="s">
-        <v>876</v>
-      </c>
+      <c r="W122" s="4"/>
       <c r="X122" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="Y122" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C123" s="4" t="n">
-        <v>13754290</v>
-      </c>
-      <c r="D123" s="4"/>
+        <v>32749161</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E123" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="F123" s="4"/>
+        <v>880</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>881</v>
+      </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4" t="n">
-        <v>92430085</v>
+        <v>92520084</v>
       </c>
       <c r="J123" s="4" t="n">
-        <v>1111138</v>
+        <v>1111137</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -9624,39 +9646,37 @@
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
       <c r="W123" s="4" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="X123" s="4" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="Y123" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C124" s="4" t="n">
-        <v>30047100</v>
+        <v>13754290</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>884</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4" t="n">
-        <v>92340086</v>
+        <v>92430085</v>
       </c>
       <c r="J124" s="4" t="n">
-        <v>1111139</v>
+        <v>1111138</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -9670,12 +9690,14 @@
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
-      <c r="W124" s="4"/>
+      <c r="W124" s="4" t="s">
+        <v>886</v>
+      </c>
       <c r="X124" s="4" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="Y124" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9683,27 +9705,25 @@
         <v>31</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C125" s="4" t="n">
-        <v>26842743</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>887</v>
-      </c>
+        <v>30047100</v>
+      </c>
+      <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4" t="n">
-        <v>92250087</v>
+        <v>92340086</v>
       </c>
       <c r="J125" s="4" t="n">
-        <v>1111140</v>
+        <v>1111139</v>
       </c>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
@@ -9719,7 +9739,7 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="Y125" s="4" t="s">
         <v>43</v>
@@ -9730,27 +9750,27 @@
         <v>31</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C126" s="4" t="n">
-        <v>28132735</v>
+        <v>26842743</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>22</v>
+        <v>893</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4" t="n">
-        <v>92160088</v>
+        <v>92250087</v>
       </c>
       <c r="J126" s="4" t="n">
-        <v>1111141</v>
+        <v>1111140</v>
       </c>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -9764,46 +9784,44 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
-      <c r="W126" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="W126" s="4"/>
       <c r="X126" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="Y126" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C127" s="4" t="n">
-        <v>28217836</v>
-      </c>
-      <c r="D127" s="4"/>
+        <v>28132735</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E127" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="F127" s="4"/>
+        <v>898</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>899</v>
+      </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4" t="n">
-        <v>92070089</v>
+        <v>92160088</v>
       </c>
       <c r="J127" s="4" t="n">
-        <v>1111142</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>898</v>
-      </c>
+        <v>1111141</v>
+      </c>
+      <c r="K127" s="4"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="4" t="s">
-        <v>899</v>
-      </c>
+      <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
@@ -9813,44 +9831,46 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
-      <c r="W127" s="4"/>
-      <c r="X127" s="4"/>
+      <c r="W127" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="X127" s="4" t="s">
+        <v>901</v>
+      </c>
       <c r="Y127" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C128" s="4" t="n">
-        <v>30209500</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>901</v>
-      </c>
+        <v>28217836</v>
+      </c>
+      <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F128" s="5" t="s">
         <v>903</v>
       </c>
+      <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="H128" s="4" t="s">
-        <v>791</v>
-      </c>
+      <c r="H128" s="4"/>
       <c r="I128" s="4" t="n">
-        <v>91980090</v>
+        <v>92070089</v>
       </c>
       <c r="J128" s="4" t="n">
-        <v>1111143</v>
-      </c>
-      <c r="K128" s="4"/>
+        <v>1111142</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>904</v>
+      </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
+      <c r="M128" s="4" t="s">
+        <v>905</v>
+      </c>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
@@ -9860,12 +9880,8 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
-      <c r="W128" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="X128" s="4" t="s">
-        <v>905</v>
-      </c>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
       <c r="Y128" s="4" t="s">
         <v>30</v>
       </c>
@@ -9878,22 +9894,26 @@
         <v>906</v>
       </c>
       <c r="C129" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D129" s="4"/>
+        <v>30209500</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>907</v>
+      </c>
       <c r="E129" s="4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
+      <c r="H129" s="4" t="s">
+        <v>797</v>
+      </c>
       <c r="I129" s="4" t="n">
-        <v>91890091</v>
+        <v>91980090</v>
       </c>
       <c r="J129" s="4" t="n">
-        <v>1111144</v>
+        <v>1111143</v>
       </c>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -9908,45 +9928,43 @@
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
       <c r="W129" s="4" t="s">
-        <v>481</v>
+        <v>910</v>
       </c>
       <c r="X129" s="4" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="Y129" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C130" s="4" t="n">
-        <v>24958526</v>
+        <v>16</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="F130" s="4"/>
+        <v>913</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>914</v>
+      </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4" t="n">
-        <v>91800092</v>
+        <v>91890091</v>
       </c>
       <c r="J130" s="4" t="n">
-        <v>1111145</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>912</v>
-      </c>
+        <v>1111144</v>
+      </c>
+      <c r="K130" s="4"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="4" t="s">
-        <v>913</v>
-      </c>
+      <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
@@ -9957,47 +9975,45 @@
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
       <c r="W130" s="4" t="s">
-        <v>738</v>
+        <v>492</v>
       </c>
       <c r="X130" s="4" t="s">
-        <v>490</v>
+        <v>915</v>
       </c>
       <c r="Y130" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C131" s="4" t="n">
-        <v>25669688</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>24958526</v>
+      </c>
+      <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>916</v>
-      </c>
+        <v>917</v>
+      </c>
+      <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="4" t="s">
-        <v>791</v>
-      </c>
+      <c r="H131" s="4"/>
       <c r="I131" s="4" t="n">
-        <v>91710093</v>
+        <v>91800092</v>
       </c>
       <c r="J131" s="4" t="n">
-        <v>1111146</v>
-      </c>
-      <c r="K131" s="4"/>
+        <v>1111145</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>918</v>
+      </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
+      <c r="M131" s="4" t="s">
+        <v>919</v>
+      </c>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
@@ -10007,38 +10023,44 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
-      <c r="W131" s="4"/>
-      <c r="X131" s="4"/>
+      <c r="W131" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="X131" s="4" t="s">
+        <v>501</v>
+      </c>
       <c r="Y131" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C132" s="4" t="n">
-        <v>21777868</v>
+        <v>25669688</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
+      <c r="H132" s="4" t="s">
+        <v>797</v>
+      </c>
       <c r="I132" s="4" t="n">
-        <v>91620094</v>
+        <v>91710093</v>
       </c>
       <c r="J132" s="4" t="n">
-        <v>1111147</v>
+        <v>1111146</v>
       </c>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -10055,7 +10077,7 @@
       <c r="W132" s="4"/>
       <c r="X132" s="4"/>
       <c r="Y132" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10063,27 +10085,27 @@
         <v>31</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C133" s="4" t="n">
-        <v>28472221</v>
+        <v>21777868</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>921</v>
+        <v>173</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4" t="n">
-        <v>91530095</v>
+        <v>91620094</v>
       </c>
       <c r="J133" s="4" t="n">
-        <v>1111148</v>
+        <v>1111147</v>
       </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -10097,44 +10119,40 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
-      <c r="W133" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="X133" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
       <c r="Y133" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C134" s="4" t="n">
-        <v>27583593</v>
-      </c>
-      <c r="D134" s="4"/>
+        <v>28472221</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>927</v>
+      </c>
       <c r="E134" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4" t="n">
-        <v>3407216</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4" t="n">
-        <v>91440096</v>
+        <v>91530095</v>
       </c>
       <c r="J134" s="4" t="n">
-        <v>1111149</v>
-      </c>
-      <c r="K134" s="4" t="s">
-        <v>927</v>
-      </c>
+        <v>1111148</v>
+      </c>
+      <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
@@ -10146,41 +10164,43 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
-      <c r="W134" s="4"/>
-      <c r="X134" s="4"/>
+      <c r="W134" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="X134" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="Y134" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C135" s="4" t="n">
-        <v>21958462</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>929</v>
-      </c>
+        <v>27583593</v>
+      </c>
+      <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>931</v>
-      </c>
-      <c r="G135" s="4"/>
+        <v>932</v>
+      </c>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4" t="n">
+        <v>3407216</v>
+      </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4" t="n">
-        <v>91350097</v>
+        <v>91440096</v>
       </c>
       <c r="J135" s="4" t="n">
-        <v>1111150</v>
+        <v>1111149</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
@@ -10193,40 +10213,42 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
-      <c r="W135" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="X135" s="4" t="s">
-        <v>934</v>
-      </c>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
       <c r="Y135" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C136" s="4" t="n">
+        <v>21958462</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="C136" s="4" t="n">
-        <v>34223187</v>
-      </c>
-      <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="F136" s="4"/>
+      <c r="F136" s="5" t="s">
+        <v>937</v>
+      </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4" t="n">
-        <v>91260098</v>
+        <v>91350097</v>
       </c>
       <c r="J136" s="4" t="n">
-        <v>1111151</v>
-      </c>
-      <c r="K136" s="4"/>
+        <v>1111150</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>938</v>
+      </c>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
@@ -10239,41 +10261,37 @@
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
       <c r="W136" s="4" t="s">
-        <v>468</v>
+        <v>939</v>
       </c>
       <c r="X136" s="4" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="Y136" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C137" s="4" t="n">
-        <v>33965465</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>34223187</v>
+      </c>
+      <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>940</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4" t="n">
-        <v>91170099</v>
+        <v>91260098</v>
       </c>
       <c r="J137" s="4" t="n">
-        <v>1111152</v>
+        <v>1111151</v>
       </c>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -10287,9 +10305,11 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
-      <c r="W137" s="4"/>
+      <c r="W137" s="4" t="s">
+        <v>479</v>
+      </c>
       <c r="X137" s="4" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="Y137" s="4" t="s">
         <v>30</v>
@@ -10300,25 +10320,27 @@
         <v>20</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C138" s="4" t="n">
-        <v>29005232</v>
-      </c>
-      <c r="D138" s="4"/>
+        <v>33965465</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="E138" s="4" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4" t="n">
-        <v>91080100</v>
+        <v>91170099</v>
       </c>
       <c r="J138" s="4" t="n">
-        <v>1111153</v>
+        <v>1111152</v>
       </c>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -10332,40 +10354,38 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
-      <c r="W138" s="4" t="s">
-        <v>945</v>
-      </c>
+      <c r="W138" s="4"/>
       <c r="X138" s="4" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="Y138" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C139" s="4" t="n">
-        <v>30059184</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>29005232</v>
+      </c>
+      <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="F139" s="4"/>
+        <v>949</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>950</v>
+      </c>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4" t="n">
-        <v>90990101</v>
+        <v>91080100</v>
       </c>
       <c r="J139" s="4" t="n">
-        <v>1111154</v>
+        <v>1111153</v>
       </c>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -10380,41 +10400,39 @@
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
       <c r="W139" s="4" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="X139" s="4" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="Y139" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C140" s="4" t="n">
-        <v>29105964</v>
+        <v>30059184</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>953</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4" t="n">
-        <v>90900102</v>
+        <v>90990101</v>
       </c>
       <c r="J140" s="4" t="n">
-        <v>1111155</v>
+        <v>1111154</v>
       </c>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
@@ -10428,9 +10446,11 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
-      <c r="W140" s="4"/>
+      <c r="W140" s="4" t="s">
+        <v>955</v>
+      </c>
       <c r="X140" s="4" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="Y140" s="4" t="s">
         <v>43</v>
@@ -10438,28 +10458,30 @@
     </row>
     <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>209</v>
+        <v>957</v>
       </c>
       <c r="C141" s="4" t="n">
-        <v>31585251</v>
-      </c>
-      <c r="D141" s="4"/>
+        <v>29105964</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E141" s="4" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4" t="n">
-        <v>90810103</v>
+        <v>90900102</v>
       </c>
       <c r="J141" s="4" t="n">
-        <v>1111156</v>
+        <v>1111155</v>
       </c>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
@@ -10474,9 +10496,11 @@
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
-      <c r="X141" s="4"/>
+      <c r="X141" s="4" t="s">
+        <v>960</v>
+      </c>
       <c r="Y141" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10484,27 +10508,25 @@
         <v>20</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>957</v>
+        <v>209</v>
       </c>
       <c r="C142" s="4" t="n">
-        <v>28021453</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>31585251</v>
+      </c>
+      <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4" t="n">
-        <v>90720104</v>
+        <v>90810103</v>
       </c>
       <c r="J142" s="4" t="n">
-        <v>1111157</v>
+        <v>1111156</v>
       </c>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
@@ -10518,48 +10540,42 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
-      <c r="W142" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="X142" s="4" t="s">
-        <v>961</v>
-      </c>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
       <c r="Y142" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C143" s="4" t="n">
-        <v>14688386</v>
+        <v>28021453</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>963</v>
+        <v>22</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="F143" s="4"/>
+      <c r="F143" s="5" t="s">
+        <v>965</v>
+      </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4" t="n">
-        <v>90630105</v>
+        <v>90720104</v>
       </c>
       <c r="J143" s="4" t="n">
-        <v>1111158</v>
-      </c>
-      <c r="K143" s="4" t="s">
-        <v>965</v>
-      </c>
+        <v>1111157</v>
+      </c>
+      <c r="K143" s="4"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="4" t="s">
-        <v>966</v>
-      </c>
+      <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
@@ -10569,9 +10585,11 @@
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
-      <c r="W143" s="4"/>
+      <c r="W143" s="4" t="s">
+        <v>966</v>
+      </c>
       <c r="X143" s="4" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="Y143" s="4" t="s">
         <v>30</v>
@@ -10582,30 +10600,32 @@
         <v>20</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C144" s="4" t="n">
-        <v>21337483</v>
-      </c>
-      <c r="D144" s="4"/>
+        <v>14688386</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>969</v>
+      </c>
       <c r="E144" s="4" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4" t="n">
-        <v>90540106</v>
+        <v>90630105</v>
       </c>
       <c r="J144" s="4" t="n">
-        <v>1111159</v>
+        <v>1111158</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="L144" s="4"/>
       <c r="M144" s="4" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
@@ -10616,50 +10636,44 @@
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
-      <c r="W144" s="4" t="s">
+      <c r="W144" s="4"/>
+      <c r="X144" s="4" t="s">
         <v>971</v>
-      </c>
-      <c r="X144" s="4" t="s">
-        <v>972</v>
       </c>
       <c r="Y144" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>973</v>
       </c>
       <c r="C145" s="4" t="n">
-        <v>21720146</v>
-      </c>
-      <c r="D145" s="4" t="s">
+        <v>21337483</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4" t="n">
+        <v>90540106</v>
+      </c>
+      <c r="J145" s="4" t="n">
+        <v>1111159</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="L145" s="4"/>
+      <c r="M145" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="I145" s="4" t="n">
-        <v>90450107</v>
-      </c>
-      <c r="J145" s="4" t="n">
-        <v>1111160</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
@@ -10670,40 +10684,46 @@
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
       <c r="W145" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="X145" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="X145" s="4"/>
       <c r="Y145" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>979</v>
       </c>
       <c r="C146" s="4" t="n">
-        <v>11356356</v>
-      </c>
-      <c r="D146" s="4"/>
+        <v>21720146</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>980</v>
+      </c>
       <c r="E146" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
+      <c r="H146" s="4" t="s">
+        <v>983</v>
+      </c>
       <c r="I146" s="4" t="n">
-        <v>90360108</v>
+        <v>90450107</v>
       </c>
       <c r="J146" s="4" t="n">
-        <v>1111161</v>
+        <v>1111160</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>982</v>
+        <v>168</v>
       </c>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
@@ -10716,40 +10736,42 @@
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
+      <c r="W146" s="4" t="s">
+        <v>984</v>
+      </c>
       <c r="X146" s="4"/>
       <c r="Y146" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C147" s="4" t="n">
-        <v>31817140</v>
+        <v>11356356</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="G147" s="4" t="n">
-        <v>5831588</v>
-      </c>
+        <v>987</v>
+      </c>
+      <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4" t="n">
-        <v>90270109</v>
+        <v>90360108</v>
       </c>
       <c r="J147" s="4" t="n">
-        <v>1111162</v>
-      </c>
-      <c r="K147" s="4"/>
+        <v>1111161</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>988</v>
+      </c>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
@@ -10761,13 +10783,58 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
-      <c r="W147" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="X147" s="4" t="s">
-        <v>987</v>
-      </c>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
       <c r="Y147" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C148" s="4" t="n">
+        <v>31817140</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="G148" s="4" t="n">
+        <v>5831588</v>
+      </c>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4" t="n">
+        <v>90270109</v>
+      </c>
+      <c r="J148" s="4" t="n">
+        <v>1111162</v>
+      </c>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="X148" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="Y148" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10805,71 +10872,72 @@
     <hyperlink ref="F40" r:id="rId30" display="wanjirumercy3752@gmail.com"/>
     <hyperlink ref="F41" r:id="rId31" display="victorochieng941@gmail.com"/>
     <hyperlink ref="F44" r:id="rId32" display="gmus.2000@gmail.com"/>
-    <hyperlink ref="F45" r:id="rId33" display="info@sheryldestination.com"/>
-    <hyperlink ref="F47" r:id="rId34" display="paulinesembi@gmail.com"/>
-    <hyperlink ref="F48" r:id="rId35" display="joykayaim@gmail.com"/>
-    <hyperlink ref="F49" r:id="rId36" display="ikings.2010@gmail.com"/>
-    <hyperlink ref="F50" r:id="rId37" display="odhiambo@gmail.com"/>
-    <hyperlink ref="F51" r:id="rId38" display="sakinyi663@gmail.com"/>
-    <hyperlink ref="F52" r:id="rId39" display="anndougz26@gmail.com"/>
-    <hyperlink ref="F54" r:id="rId40" display="lizmusyoki86@gmail.com"/>
-    <hyperlink ref="F57" r:id="rId41" display="joycewangui@gmail.com"/>
-    <hyperlink ref="F58" r:id="rId42" display="artworks@primecartoonltd.co.ke"/>
-    <hyperlink ref="F60" r:id="rId43" display="marymukundi@gmail.com"/>
-    <hyperlink ref="F61" r:id="rId44" display="njokiag@gmail.com"/>
-    <hyperlink ref="F63" r:id="rId45" display="lizevans7875@gmail.com"/>
-    <hyperlink ref="F64" r:id="rId46" display="skairu@simbacolt.com"/>
-    <hyperlink ref="F65" r:id="rId47" display="rachealkisiangani@gmail.com"/>
-    <hyperlink ref="F66" r:id="rId48" display="janekutheq@yahoo.com"/>
-    <hyperlink ref="F69" r:id="rId49" display="mutindascola@gmail.com"/>
-    <hyperlink ref="F72" r:id="rId50" display="jamemacharia77@yahoo.com"/>
-    <hyperlink ref="F74" r:id="rId51" display="kiamahiram@yahoo.com"/>
-    <hyperlink ref="F76" r:id="rId52" display="nicwonder@gmail.com"/>
-    <hyperlink ref="F77" r:id="rId53" display="giterucharles4@gmail.com"/>
-    <hyperlink ref="F83" r:id="rId54" display="mweluelizabeth@yahoo.com"/>
-    <hyperlink ref="F86" r:id="rId55" display="nicolasmulwa@yahoo.com"/>
-    <hyperlink ref="F87" r:id="rId56" display="mmutinda@ymail.com"/>
-    <hyperlink ref="F88" r:id="rId57" display="eunicekwoma@gmail.com"/>
-    <hyperlink ref="F89" r:id="rId58" display="mwangangirichard22@gmail.com"/>
-    <hyperlink ref="F90" r:id="rId59" display="emmulandi@gmail.com"/>
-    <hyperlink ref="F91" r:id="rId60" display="roberttosh30@gmail.com"/>
-    <hyperlink ref="F93" r:id="rId61" display="jimmymwanzia@yahoo.com"/>
-    <hyperlink ref="F94" r:id="rId62" display="winnieharry75@gmail.com"/>
-    <hyperlink ref="F97" r:id="rId63" display="jmwas79@gmail.com"/>
-    <hyperlink ref="F98" r:id="rId64" display="ednanyanduko2@gmail.com"/>
-    <hyperlink ref="F99" r:id="rId65" display="demptar2016@gmail.com"/>
-    <hyperlink ref="F100" r:id="rId66" display="sharonsharon952@gmail.com"/>
-    <hyperlink ref="F102" r:id="rId67" display="smutiso352@gmail.com"/>
-    <hyperlink ref="F104" r:id="rId68" display="ww.richardotieno@gmail.com"/>
-    <hyperlink ref="F105" r:id="rId69" display="pollyriungu@gmail.com"/>
-    <hyperlink ref="F108" r:id="rId70" display="pamellahbenta22@gmail.com"/>
-    <hyperlink ref="F109" r:id="rId71" display="fibiaakula@yahoo.com"/>
-    <hyperlink ref="F111" r:id="rId72" display="paulokumu64@yahho.com"/>
-    <hyperlink ref="F112" r:id="rId73" display="nancym@gmail.com"/>
-    <hyperlink ref="F113" r:id="rId74" display="marymukuhi93@gmail.com"/>
-    <hyperlink ref="F114" r:id="rId75" display="mukabi.mary@yahoo.co"/>
-    <hyperlink ref="F116" r:id="rId76" display="maryatieno24@gmail.com"/>
-    <hyperlink ref="F117" r:id="rId77" display="marywaweru973@gmail.com"/>
-    <hyperlink ref="F119" r:id="rId78" display="shelmithwanyaga@gmail.com"/>
-    <hyperlink ref="F120" r:id="rId79" display="josephmutua@gmail.com"/>
-    <hyperlink ref="F122" r:id="rId80" display="lauralaureeny1@gmail.com"/>
-    <hyperlink ref="F124" r:id="rId81" display="kevinolum96@gmail.com"/>
-    <hyperlink ref="F125" r:id="rId82" display="jfortunekamah@yahoo.com"/>
-    <hyperlink ref="F126" r:id="rId83" display="joseptush13@gmail.com"/>
-    <hyperlink ref="F128" r:id="rId84" display="gracelizah@gmail.com"/>
-    <hyperlink ref="F129" r:id="rId85" display="mucokijacquiline97@gmail.com"/>
-    <hyperlink ref="F131" r:id="rId86" display="ghnyongesa@gmail.com"/>
-    <hyperlink ref="F132" r:id="rId87" display="gwafula131@yahoo.com"/>
-    <hyperlink ref="F133" r:id="rId88" display="gideonmwalili@gmail.com"/>
-    <hyperlink ref="F135" r:id="rId89" display="mbuthiafaith@gmail.com"/>
-    <hyperlink ref="F137" r:id="rId90" display="estherkibe91@gmail.com"/>
-    <hyperlink ref="F138" r:id="rId91" display="mwangi.d.mso@gmail.com"/>
-    <hyperlink ref="F140" r:id="rId92" display="chegedavid.dc@gmail.com"/>
-    <hyperlink ref="F141" r:id="rId93" display="wambui@yahoo.com"/>
-    <hyperlink ref="F142" r:id="rId94" display="christinawelly@yahoo.com"/>
-    <hyperlink ref="F145" r:id="rId95" display="amosnganga79@yahoo.com"/>
-    <hyperlink ref="F146" r:id="rId96" display="maryonchiri@gmail.com"/>
-    <hyperlink ref="F147" r:id="rId97" display="platnumzw@gmail.com"/>
+    <hyperlink ref="F45" r:id="rId33" display="mutiaruth@gmail.com"/>
+    <hyperlink ref="F46" r:id="rId34" display="info@sheryldestination.com"/>
+    <hyperlink ref="F48" r:id="rId35" display="paulinesembi@gmail.com"/>
+    <hyperlink ref="F49" r:id="rId36" display="joykayaim@gmail.com"/>
+    <hyperlink ref="F50" r:id="rId37" display="ikings.2010@gmail.com"/>
+    <hyperlink ref="F51" r:id="rId38" display="odhiambo@gmail.com"/>
+    <hyperlink ref="F52" r:id="rId39" display="sakinyi663@gmail.com"/>
+    <hyperlink ref="F53" r:id="rId40" display="anndougz26@gmail.com"/>
+    <hyperlink ref="F55" r:id="rId41" display="lizmusyoki86@gmail.com"/>
+    <hyperlink ref="F58" r:id="rId42" display="joycewangui@gmail.com"/>
+    <hyperlink ref="F59" r:id="rId43" display="artworks@primecartoonltd.co.ke"/>
+    <hyperlink ref="F61" r:id="rId44" display="marymukundi@gmail.com"/>
+    <hyperlink ref="F62" r:id="rId45" display="njokiag@gmail.com"/>
+    <hyperlink ref="F64" r:id="rId46" display="lizevans7875@gmail.com"/>
+    <hyperlink ref="F65" r:id="rId47" display="skairu@simbacolt.com"/>
+    <hyperlink ref="F66" r:id="rId48" display="rachealkisiangani@gmail.com"/>
+    <hyperlink ref="F67" r:id="rId49" display="janekutheq@yahoo.com"/>
+    <hyperlink ref="F70" r:id="rId50" display="mutindascola@gmail.com"/>
+    <hyperlink ref="F73" r:id="rId51" display="jamemacharia77@yahoo.com"/>
+    <hyperlink ref="F75" r:id="rId52" display="kiamahiram@yahoo.com"/>
+    <hyperlink ref="F77" r:id="rId53" display="nicwonder@gmail.com"/>
+    <hyperlink ref="F78" r:id="rId54" display="giterucharles4@gmail.com"/>
+    <hyperlink ref="F84" r:id="rId55" display="mweluelizabeth@yahoo.com"/>
+    <hyperlink ref="F87" r:id="rId56" display="nicolasmulwa@yahoo.com"/>
+    <hyperlink ref="F88" r:id="rId57" display="mmutinda@ymail.com"/>
+    <hyperlink ref="F89" r:id="rId58" display="eunicekwoma@gmail.com"/>
+    <hyperlink ref="F90" r:id="rId59" display="mwangangirichard22@gmail.com"/>
+    <hyperlink ref="F91" r:id="rId60" display="emmulandi@gmail.com"/>
+    <hyperlink ref="F92" r:id="rId61" display="roberttosh30@gmail.com"/>
+    <hyperlink ref="F94" r:id="rId62" display="jimmymwanzia@yahoo.com"/>
+    <hyperlink ref="F95" r:id="rId63" display="winnieharry75@gmail.com"/>
+    <hyperlink ref="F98" r:id="rId64" display="jmwas79@gmail.com"/>
+    <hyperlink ref="F99" r:id="rId65" display="ednanyanduko2@gmail.com"/>
+    <hyperlink ref="F100" r:id="rId66" display="demptar2016@gmail.com"/>
+    <hyperlink ref="F101" r:id="rId67" display="sharonsharon952@gmail.com"/>
+    <hyperlink ref="F103" r:id="rId68" display="smutiso352@gmail.com"/>
+    <hyperlink ref="F105" r:id="rId69" display="ww.richardotieno@gmail.com"/>
+    <hyperlink ref="F106" r:id="rId70" display="pollyriungu@gmail.com"/>
+    <hyperlink ref="F109" r:id="rId71" display="pamellahbenta22@gmail.com"/>
+    <hyperlink ref="F110" r:id="rId72" display="fibiaakula@yahoo.com"/>
+    <hyperlink ref="F112" r:id="rId73" display="paulokumu64@yahho.com"/>
+    <hyperlink ref="F113" r:id="rId74" display="nancym@gmail.com"/>
+    <hyperlink ref="F114" r:id="rId75" display="marymukuhi93@gmail.com"/>
+    <hyperlink ref="F115" r:id="rId76" display="mukabi.mary@yahoo.co"/>
+    <hyperlink ref="F117" r:id="rId77" display="maryatieno24@gmail.com"/>
+    <hyperlink ref="F118" r:id="rId78" display="marywaweru973@gmail.com"/>
+    <hyperlink ref="F120" r:id="rId79" display="shelmithwanyaga@gmail.com"/>
+    <hyperlink ref="F121" r:id="rId80" display="josephmutua@gmail.com"/>
+    <hyperlink ref="F123" r:id="rId81" display="lauralaureeny1@gmail.com"/>
+    <hyperlink ref="F125" r:id="rId82" display="kevinolum96@gmail.com"/>
+    <hyperlink ref="F126" r:id="rId83" display="jfortunekamah@yahoo.com"/>
+    <hyperlink ref="F127" r:id="rId84" display="joseptush13@gmail.com"/>
+    <hyperlink ref="F129" r:id="rId85" display="gracelizah@gmail.com"/>
+    <hyperlink ref="F130" r:id="rId86" display="mucokijacquiline97@gmail.com"/>
+    <hyperlink ref="F132" r:id="rId87" display="ghnyongesa@gmail.com"/>
+    <hyperlink ref="F133" r:id="rId88" display="gwafula131@yahoo.com"/>
+    <hyperlink ref="F134" r:id="rId89" display="gideonmwalili@gmail.com"/>
+    <hyperlink ref="F136" r:id="rId90" display="mbuthiafaith@gmail.com"/>
+    <hyperlink ref="F138" r:id="rId91" display="estherkibe91@gmail.com"/>
+    <hyperlink ref="F139" r:id="rId92" display="mwangi.d.mso@gmail.com"/>
+    <hyperlink ref="F141" r:id="rId93" display="chegedavid.dc@gmail.com"/>
+    <hyperlink ref="F142" r:id="rId94" display="wambui@yahoo.com"/>
+    <hyperlink ref="F143" r:id="rId95" display="christinawelly@yahoo.com"/>
+    <hyperlink ref="F146" r:id="rId96" display="amosnganga79@yahoo.com"/>
+    <hyperlink ref="F147" r:id="rId97" display="maryonchiri@gmail.com"/>
+    <hyperlink ref="F148" r:id="rId98" display="platnumzw@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
